--- a/DesignDocs/BackgroundConcepts.xlsx
+++ b/DesignDocs/BackgroundConcepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Unity 2D\GreatGame\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2839ED5E-8268-41D8-B0C4-9218AD248BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193D150-BD4C-4552-8613-3EFF1130D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
+    <workbookView xWindow="33345" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Astrakan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,54 @@
   </si>
   <si>
     <t>Frankenburg collapsed flat on ground/Player holding onto his head.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astrakan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krasnovodsk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstContact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealOasis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtremeHeat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathDoor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirstyTurk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrongHeat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,109 +618,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5754C4E-2589-414B-8D27-A59CF40492F6}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/DesignDocs/BackgroundConcepts.xlsx
+++ b/DesignDocs/BackgroundConcepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Unity 2D\GreatGame\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193D150-BD4C-4552-8613-3EFF1130D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF58816-9D43-4CE6-8FAC-D91F84EA45E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
+    <workbookView xWindow="7110" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5754C4E-2589-414B-8D27-A59CF40492F6}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -652,7 +654,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -663,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -674,7 +676,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">

--- a/DesignDocs/BackgroundConcepts.xlsx
+++ b/DesignDocs/BackgroundConcepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Unity 2D\GreatGame\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF58816-9D43-4CE6-8FAC-D91F84EA45E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CE2E6-B48C-403E-9434-40C8121BE58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
+    <workbookView xWindow="33405" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{5238B777-0F4E-44C7-BC99-EEF756CA3825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,14 +621,14 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -709,7 +709,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -720,7 +720,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -731,7 +731,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
